--- a/docs/excel/TTask.xlsx
+++ b/docs/excel/TTask.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
